--- a/datasets/tourismus.xlsx
+++ b/datasets/tourismus.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Desktop\Happiness\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F09E4EB-8E14-4A40-A098-E55511657237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D4EDB-B39F-42F5-9A0A-CA63E25BD321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Reiseausgaben" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -122,9 +133,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$€-2]0.00"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -278,19 +286,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1459,7 +1467,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1484,318 +1492,318 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>118</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>61</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>3.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>34</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>34</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>5.6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>53</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>22</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>3.7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>91</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>3.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>69</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>1.9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>71</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>61</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>92</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>3.7</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>30</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>10.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>28</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>3.1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>81</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>2.4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>64</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>24</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>28</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>2.6</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>100</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>2.8</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>64</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>2.6</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>38</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>31</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>4.7</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>38</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>3.6</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>41</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>3.7</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>42</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>3.6</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>47</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>2.7</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>53</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>3.7</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>96</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>3.3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>103</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>3.3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>94</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <v>3.9</v>
       </c>
     </row>
